--- a/Realme/Others/Price List/realme price list.xlsx
+++ b/Realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Model</t>
   </si>
@@ -202,10 +202,13 @@
     <t>Narzo 50i (4GB+64GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 10-11-2021)</t>
-  </si>
-  <si>
-    <t>New</t>
+    <t xml:space="preserve"> (Last Update 02-12-2021)</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>C11 (4GB+64GB)</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -406,7 +409,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,28 +857,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1179,10 +1181,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,28 +1197,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1240,9 +1242,9 @@
       <c r="C5" s="4">
         <v>8990</v>
       </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,42 +1252,45 @@
       <c r="C6" s="4">
         <v>10990</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="15">
-        <v>8490</v>
+        <v>8590</v>
       </c>
       <c r="C7" s="14">
-        <f>8990</f>
-        <v>8990</v>
-      </c>
-      <c r="D7" s="19"/>
+        <v>9090</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B8" s="15">
-        <v>8490</v>
+        <v>10460</v>
       </c>
       <c r="C8" s="14">
-        <v>8990</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>11090</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B9" s="15">
-        <v>10410</v>
+        <v>8490</v>
       </c>
       <c r="C9" s="14">
-        <v>10990</v>
+        <v>8990</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>48</v>
@@ -1293,25 +1298,25 @@
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="15">
-        <v>11670</v>
+        <v>10510</v>
       </c>
       <c r="C10" s="14">
-        <v>12490</v>
+        <v>11090</v>
       </c>
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="15">
-        <v>13070</v>
+        <v>11670</v>
       </c>
       <c r="C11" s="14">
-        <v>13990</v>
+        <v>12490</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>48</v>
@@ -1319,111 +1324,135 @@
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B12" s="15">
-        <v>14470</v>
+        <v>13350</v>
       </c>
       <c r="C12" s="14">
-        <v>15490</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>14290</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="15">
-        <v>21500</v>
+        <v>14660</v>
       </c>
       <c r="C13" s="14">
-        <v>22990</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>15690</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="15">
-        <v>21270</v>
+        <v>21500</v>
       </c>
       <c r="C14" s="14">
         <v>22990</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="15">
+        <v>21270</v>
+      </c>
+      <c r="C15" s="14">
+        <v>22990</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B16" s="15">
         <v>25890</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C16" s="14">
         <f>27990</f>
         <v>27990</v>
       </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="15">
-        <v>18790</v>
-      </c>
-      <c r="C16" s="14">
-        <v>19990</v>
-      </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="15">
+        <v>18790</v>
+      </c>
+      <c r="C17" s="14">
+        <v>19990</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B18" s="15">
         <v>12240</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C18" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B21" s="15">
         <v>31990</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C21" s="14">
         <v>33990</v>
       </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="D21" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B22" s="15">
         <v>37340</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="14">
         <v>39990</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1435,7 +1464,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Realme/Others/Price List/realme price list.xlsx
+++ b/Realme/Others/Price List/realme price list.xlsx
@@ -202,13 +202,13 @@
     <t>Narzo 50i (4GB+64GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 02-12-2021)</t>
-  </si>
-  <si>
     <t>Running</t>
   </si>
   <si>
     <t>C11 (4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 04-12-2021)</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1265,12 +1265,12 @@
         <v>9090</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="15">
         <v>10460</v>
@@ -1279,7 +1279,7 @@
         <v>11090</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>8990</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>12490</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>14290</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>15690</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>22990</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>22990</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>33990</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>39990</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Realme/Others/Price List/realme price list.xlsx
+++ b/Realme/Others/Price List/realme price list.xlsx
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Realme/Others/Price List/realme price list.xlsx
+++ b/Realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -208,14 +208,26 @@
     <t>C11 (4GB+64GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 04-12-2021)</t>
+    <t xml:space="preserve"> (Last Update 06-12-2021)</t>
+  </si>
+  <si>
+    <t>+8801717436223</t>
+  </si>
+  <si>
+    <t>Komola Super Market,Alaipur, Natore.</t>
+  </si>
+  <si>
+    <t>mugdhocorporation@gmail.com</t>
+  </si>
+  <si>
+    <t>C21 Y (3GB+32GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +303,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -312,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -345,23 +370,74 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -400,15 +476,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,6 +483,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,6 +640,2031 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313490</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371808</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95362</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="313490" y="9270849"/>
+          <a:ext cx="5220868" cy="244738"/>
+          <a:chOff x="253" y="249"/>
+          <a:chExt cx="192" cy="262"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Freeform 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="336" y="256"/>
+            <a:ext cx="6" cy="255"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 40 w 41"/>
+              <a:gd name="T1" fmla="*/ 19 h 66"/>
+              <a:gd name="T2" fmla="*/ 31 w 41"/>
+              <a:gd name="T3" fmla="*/ 5 h 66"/>
+              <a:gd name="T4" fmla="*/ 11 w 41"/>
+              <a:gd name="T5" fmla="*/ 4 h 66"/>
+              <a:gd name="T6" fmla="*/ 0 w 41"/>
+              <a:gd name="T7" fmla="*/ 22 h 66"/>
+              <a:gd name="T8" fmla="*/ 0 w 41"/>
+              <a:gd name="T9" fmla="*/ 25 h 66"/>
+              <a:gd name="T10" fmla="*/ 4 w 41"/>
+              <a:gd name="T11" fmla="*/ 38 h 66"/>
+              <a:gd name="T12" fmla="*/ 19 w 41"/>
+              <a:gd name="T13" fmla="*/ 65 h 66"/>
+              <a:gd name="T14" fmla="*/ 21 w 41"/>
+              <a:gd name="T15" fmla="*/ 65 h 66"/>
+              <a:gd name="T16" fmla="*/ 33 w 41"/>
+              <a:gd name="T17" fmla="*/ 43 h 66"/>
+              <a:gd name="T18" fmla="*/ 39 w 41"/>
+              <a:gd name="T19" fmla="*/ 29 h 66"/>
+              <a:gd name="T20" fmla="*/ 40 w 41"/>
+              <a:gd name="T21" fmla="*/ 19 h 66"/>
+              <a:gd name="T22" fmla="*/ 20 w 41"/>
+              <a:gd name="T23" fmla="*/ 32 h 66"/>
+              <a:gd name="T24" fmla="*/ 11 w 41"/>
+              <a:gd name="T25" fmla="*/ 22 h 66"/>
+              <a:gd name="T26" fmla="*/ 20 w 41"/>
+              <a:gd name="T27" fmla="*/ 13 h 66"/>
+              <a:gd name="T28" fmla="*/ 29 w 41"/>
+              <a:gd name="T29" fmla="*/ 22 h 66"/>
+              <a:gd name="T30" fmla="*/ 20 w 41"/>
+              <a:gd name="T31" fmla="*/ 32 h 66"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="41" h="66">
+                <a:moveTo>
+                  <a:pt x="40" y="19"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="13"/>
+                  <a:pt x="36" y="8"/>
+                  <a:pt x="31" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="1"/>
+                  <a:pt x="18" y="0"/>
+                  <a:pt x="11" y="4"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="7"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23"/>
+                  <a:pt x="0" y="24"/>
+                  <a:pt x="0" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="29"/>
+                  <a:pt x="2" y="34"/>
+                  <a:pt x="4" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="48"/>
+                  <a:pt x="13" y="57"/>
+                  <a:pt x="19" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="21" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="58"/>
+                  <a:pt x="30" y="51"/>
+                  <a:pt x="33" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="39"/>
+                  <a:pt x="38" y="34"/>
+                  <a:pt x="39" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="26"/>
+                  <a:pt x="41" y="22"/>
+                  <a:pt x="40" y="19"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="20" y="32"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="32"/>
+                  <a:pt x="11" y="27"/>
+                  <a:pt x="11" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="17"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="20" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="29" y="17"/>
+                  <a:pt x="29" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="27"/>
+                  <a:pt x="25" y="32"/>
+                  <a:pt x="20" y="32"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Freeform 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="438" y="309"/>
+            <a:ext cx="7" cy="202"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 26 w 53"/>
+              <a:gd name="T1" fmla="*/ 53 h 53"/>
+              <a:gd name="T2" fmla="*/ 25 w 53"/>
+              <a:gd name="T3" fmla="*/ 5 h 53"/>
+              <a:gd name="T4" fmla="*/ 25 w 53"/>
+              <a:gd name="T5" fmla="*/ 13 h 53"/>
+              <a:gd name="T6" fmla="*/ 18 w 53"/>
+              <a:gd name="T7" fmla="*/ 13 h 53"/>
+              <a:gd name="T8" fmla="*/ 25 w 53"/>
+              <a:gd name="T9" fmla="*/ 25 h 53"/>
+              <a:gd name="T10" fmla="*/ 15 w 53"/>
+              <a:gd name="T11" fmla="*/ 25 h 53"/>
+              <a:gd name="T12" fmla="*/ 25 w 53"/>
+              <a:gd name="T13" fmla="*/ 16 h 53"/>
+              <a:gd name="T14" fmla="*/ 10 w 53"/>
+              <a:gd name="T15" fmla="*/ 11 h 53"/>
+              <a:gd name="T16" fmla="*/ 21 w 53"/>
+              <a:gd name="T17" fmla="*/ 5 h 53"/>
+              <a:gd name="T18" fmla="*/ 15 w 53"/>
+              <a:gd name="T19" fmla="*/ 13 h 53"/>
+              <a:gd name="T20" fmla="*/ 8 w 53"/>
+              <a:gd name="T21" fmla="*/ 13 h 53"/>
+              <a:gd name="T22" fmla="*/ 6 w 53"/>
+              <a:gd name="T23" fmla="*/ 16 h 53"/>
+              <a:gd name="T24" fmla="*/ 14 w 53"/>
+              <a:gd name="T25" fmla="*/ 16 h 53"/>
+              <a:gd name="T26" fmla="*/ 12 w 53"/>
+              <a:gd name="T27" fmla="*/ 25 h 53"/>
+              <a:gd name="T28" fmla="*/ 4 w 53"/>
+              <a:gd name="T29" fmla="*/ 25 h 53"/>
+              <a:gd name="T30" fmla="*/ 4 w 53"/>
+              <a:gd name="T31" fmla="*/ 28 h 53"/>
+              <a:gd name="T32" fmla="*/ 12 w 53"/>
+              <a:gd name="T33" fmla="*/ 28 h 53"/>
+              <a:gd name="T34" fmla="*/ 14 w 53"/>
+              <a:gd name="T35" fmla="*/ 38 h 53"/>
+              <a:gd name="T36" fmla="*/ 21 w 53"/>
+              <a:gd name="T37" fmla="*/ 49 h 53"/>
+              <a:gd name="T38" fmla="*/ 8 w 53"/>
+              <a:gd name="T39" fmla="*/ 40 h 53"/>
+              <a:gd name="T40" fmla="*/ 15 w 53"/>
+              <a:gd name="T41" fmla="*/ 41 h 53"/>
+              <a:gd name="T42" fmla="*/ 25 w 53"/>
+              <a:gd name="T43" fmla="*/ 49 h 53"/>
+              <a:gd name="T44" fmla="*/ 18 w 53"/>
+              <a:gd name="T45" fmla="*/ 40 h 53"/>
+              <a:gd name="T46" fmla="*/ 25 w 53"/>
+              <a:gd name="T47" fmla="*/ 49 h 53"/>
+              <a:gd name="T48" fmla="*/ 17 w 53"/>
+              <a:gd name="T49" fmla="*/ 38 h 53"/>
+              <a:gd name="T50" fmla="*/ 15 w 53"/>
+              <a:gd name="T51" fmla="*/ 28 h 53"/>
+              <a:gd name="T52" fmla="*/ 25 w 53"/>
+              <a:gd name="T53" fmla="*/ 28 h 53"/>
+              <a:gd name="T54" fmla="*/ 46 w 53"/>
+              <a:gd name="T55" fmla="*/ 16 h 53"/>
+              <a:gd name="T56" fmla="*/ 45 w 53"/>
+              <a:gd name="T57" fmla="*/ 25 h 53"/>
+              <a:gd name="T58" fmla="*/ 38 w 53"/>
+              <a:gd name="T59" fmla="*/ 16 h 53"/>
+              <a:gd name="T60" fmla="*/ 32 w 53"/>
+              <a:gd name="T61" fmla="*/ 5 h 53"/>
+              <a:gd name="T62" fmla="*/ 44 w 53"/>
+              <a:gd name="T63" fmla="*/ 13 h 53"/>
+              <a:gd name="T64" fmla="*/ 38 w 53"/>
+              <a:gd name="T65" fmla="*/ 13 h 53"/>
+              <a:gd name="T66" fmla="*/ 32 w 53"/>
+              <a:gd name="T67" fmla="*/ 5 h 53"/>
+              <a:gd name="T68" fmla="*/ 32 w 53"/>
+              <a:gd name="T69" fmla="*/ 5 h 53"/>
+              <a:gd name="T70" fmla="*/ 29 w 53"/>
+              <a:gd name="T71" fmla="*/ 6 h 53"/>
+              <a:gd name="T72" fmla="*/ 28 w 53"/>
+              <a:gd name="T73" fmla="*/ 13 h 53"/>
+              <a:gd name="T74" fmla="*/ 28 w 53"/>
+              <a:gd name="T75" fmla="*/ 16 h 53"/>
+              <a:gd name="T76" fmla="*/ 36 w 53"/>
+              <a:gd name="T77" fmla="*/ 16 h 53"/>
+              <a:gd name="T78" fmla="*/ 33 w 53"/>
+              <a:gd name="T79" fmla="*/ 25 h 53"/>
+              <a:gd name="T80" fmla="*/ 28 w 53"/>
+              <a:gd name="T81" fmla="*/ 16 h 53"/>
+              <a:gd name="T82" fmla="*/ 33 w 53"/>
+              <a:gd name="T83" fmla="*/ 28 h 53"/>
+              <a:gd name="T84" fmla="*/ 36 w 53"/>
+              <a:gd name="T85" fmla="*/ 38 h 53"/>
+              <a:gd name="T86" fmla="*/ 28 w 53"/>
+              <a:gd name="T87" fmla="*/ 38 h 53"/>
+              <a:gd name="T88" fmla="*/ 28 w 53"/>
+              <a:gd name="T89" fmla="*/ 49 h 53"/>
+              <a:gd name="T90" fmla="*/ 28 w 53"/>
+              <a:gd name="T91" fmla="*/ 41 h 53"/>
+              <a:gd name="T92" fmla="*/ 34 w 53"/>
+              <a:gd name="T93" fmla="*/ 40 h 53"/>
+              <a:gd name="T94" fmla="*/ 32 w 53"/>
+              <a:gd name="T95" fmla="*/ 49 h 53"/>
+              <a:gd name="T96" fmla="*/ 38 w 53"/>
+              <a:gd name="T97" fmla="*/ 40 h 53"/>
+              <a:gd name="T98" fmla="*/ 39 w 53"/>
+              <a:gd name="T99" fmla="*/ 46 h 53"/>
+              <a:gd name="T100" fmla="*/ 39 w 53"/>
+              <a:gd name="T101" fmla="*/ 38 h 53"/>
+              <a:gd name="T102" fmla="*/ 40 w 53"/>
+              <a:gd name="T103" fmla="*/ 28 h 53"/>
+              <a:gd name="T104" fmla="*/ 49 w 53"/>
+              <a:gd name="T105" fmla="*/ 28 h 53"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T80" y="T81"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T82" y="T83"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T84" y="T85"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T86" y="T87"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T88" y="T89"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T90" y="T91"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T92" y="T93"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T94" y="T95"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T96" y="T97"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T98" y="T99"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T100" y="T101"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T102" y="T103"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T104" y="T105"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="53" h="53">
+                <a:moveTo>
+                  <a:pt x="26" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="0" y="12"/>
+                  <a:pt x="0" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="41"/>
+                  <a:pt x="12" y="53"/>
+                  <a:pt x="26" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="53"/>
+                  <a:pt x="53" y="41"/>
+                  <a:pt x="53" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="12"/>
+                  <a:pt x="41" y="0"/>
+                  <a:pt x="26" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="8"/>
+                  <a:pt x="25" y="10"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="13"/>
+                  <a:pt x="21" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="10"/>
+                  <a:pt x="22" y="7"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="25"/>
+                  <a:pt x="22" y="25"/>
+                  <a:pt x="20" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="25"/>
+                  <a:pt x="17" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="22"/>
+                  <a:pt x="16" y="19"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="16"/>
+                  <a:pt x="22" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="19"/>
+                  <a:pt x="25" y="22"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="10" y="11"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="8"/>
+                  <a:pt x="17" y="6"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="6"/>
+                  <a:pt x="18" y="8"/>
+                  <a:pt x="17" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="11"/>
+                  <a:pt x="16" y="12"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="13"/>
+                  <a:pt x="11" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="10" y="11"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="4" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="22"/>
+                  <a:pt x="5" y="19"/>
+                  <a:pt x="6" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="6" y="16"/>
+                  <a:pt x="7" y="16"/>
+                  <a:pt x="7" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="16"/>
+                  <a:pt x="12" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="18"/>
+                  <a:pt x="13" y="20"/>
+                  <a:pt x="13" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="23"/>
+                  <a:pt x="13" y="24"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="25"/>
+                  <a:pt x="9" y="25"/>
+                  <a:pt x="8" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="25"/>
+                  <a:pt x="5" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="7" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="38"/>
+                  <a:pt x="6" y="38"/>
+                  <a:pt x="6" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="35"/>
+                  <a:pt x="4" y="32"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="28"/>
+                  <a:pt x="9" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="31"/>
+                  <a:pt x="13" y="35"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="38"/>
+                  <a:pt x="9" y="38"/>
+                  <a:pt x="7" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="21" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="48"/>
+                  <a:pt x="16" y="47"/>
+                  <a:pt x="13" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="44"/>
+                  <a:pt x="10" y="42"/>
+                  <a:pt x="8" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="40"/>
+                  <a:pt x="13" y="40"/>
+                  <a:pt x="15" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="44"/>
+                  <a:pt x="19" y="46"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="47"/>
+                  <a:pt x="20" y="44"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="40"/>
+                  <a:pt x="23" y="40"/>
+                  <a:pt x="25" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="43"/>
+                  <a:pt x="25" y="46"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="38"/>
+                  <a:pt x="20" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="35"/>
+                  <a:pt x="15" y="31"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="28"/>
+                  <a:pt x="18" y="28"/>
+                  <a:pt x="20" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="28"/>
+                  <a:pt x="23" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="31"/>
+                  <a:pt x="25" y="34"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="19"/>
+                  <a:pt x="49" y="22"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="47" y="25"/>
+                  <a:pt x="46" y="25"/>
+                  <a:pt x="45" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="25"/>
+                  <a:pt x="42" y="25"/>
+                  <a:pt x="41" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="22"/>
+                  <a:pt x="40" y="19"/>
+                  <a:pt x="38" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="39" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="16"/>
+                  <a:pt x="44" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="32" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="5"/>
+                  <a:pt x="34" y="5"/>
+                  <a:pt x="36" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="8"/>
+                  <a:pt x="42" y="10"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="45" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="13"/>
+                  <a:pt x="40" y="13"/>
+                  <a:pt x="38" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="10"/>
+                  <a:pt x="34" y="7"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="31" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="29" y="5"/>
+                  <a:pt x="29" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="8"/>
+                  <a:pt x="33" y="10"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="13"/>
+                  <a:pt x="30" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="10"/>
+                  <a:pt x="28" y="7"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="16"/>
+                  <a:pt x="33" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="19"/>
+                  <a:pt x="38" y="22"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="26"/>
+                  <a:pt x="38" y="25"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="25"/>
+                  <a:pt x="34" y="25"/>
+                  <a:pt x="33" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="25"/>
+                  <a:pt x="29" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="22"/>
+                  <a:pt x="28" y="19"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="28"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="28"/>
+                  <a:pt x="31" y="28"/>
+                  <a:pt x="33" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="34" y="28"/>
+                  <a:pt x="36" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="31"/>
+                  <a:pt x="37" y="35"/>
+                  <a:pt x="36" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="35" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="38"/>
+                  <a:pt x="30" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="34"/>
+                  <a:pt x="28" y="31"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="46"/>
+                  <a:pt x="28" y="43"/>
+                  <a:pt x="28" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="40"/>
+                  <a:pt x="32" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="44"/>
+                  <a:pt x="31" y="46"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="39" y="46"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="47"/>
+                  <a:pt x="34" y="48"/>
+                  <a:pt x="32" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="48"/>
+                  <a:pt x="33" y="47"/>
+                  <a:pt x="34" y="46"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="44"/>
+                  <a:pt x="36" y="42"/>
+                  <a:pt x="37" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="38" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="40"/>
+                  <a:pt x="42" y="40"/>
+                  <a:pt x="44" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="45" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="41" y="44"/>
+                  <a:pt x="39" y="46"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="38"/>
+                  <a:pt x="41" y="38"/>
+                  <a:pt x="39" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="35"/>
+                  <a:pt x="40" y="32"/>
+                  <a:pt x="40" y="30"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="41" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="28"/>
+                  <a:pt x="43" y="28"/>
+                  <a:pt x="45" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="28"/>
+                  <a:pt x="47" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="32"/>
+                  <a:pt x="48" y="35"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Freeform 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="255" y="299"/>
+            <a:ext cx="6" cy="191"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 64"/>
+              <a:gd name="T1" fmla="*/ 13 h 64"/>
+              <a:gd name="T2" fmla="*/ 1 w 64"/>
+              <a:gd name="T3" fmla="*/ 12 h 64"/>
+              <a:gd name="T4" fmla="*/ 2 w 64"/>
+              <a:gd name="T5" fmla="*/ 10 h 64"/>
+              <a:gd name="T6" fmla="*/ 11 w 64"/>
+              <a:gd name="T7" fmla="*/ 1 h 64"/>
+              <a:gd name="T8" fmla="*/ 15 w 64"/>
+              <a:gd name="T9" fmla="*/ 0 h 64"/>
+              <a:gd name="T10" fmla="*/ 16 w 64"/>
+              <a:gd name="T11" fmla="*/ 2 h 64"/>
+              <a:gd name="T12" fmla="*/ 23 w 64"/>
+              <a:gd name="T13" fmla="*/ 15 h 64"/>
+              <a:gd name="T14" fmla="*/ 23 w 64"/>
+              <a:gd name="T15" fmla="*/ 20 h 64"/>
+              <a:gd name="T16" fmla="*/ 19 w 64"/>
+              <a:gd name="T17" fmla="*/ 23 h 64"/>
+              <a:gd name="T18" fmla="*/ 19 w 64"/>
+              <a:gd name="T19" fmla="*/ 25 h 64"/>
+              <a:gd name="T20" fmla="*/ 21 w 64"/>
+              <a:gd name="T21" fmla="*/ 29 h 64"/>
+              <a:gd name="T22" fmla="*/ 25 w 64"/>
+              <a:gd name="T23" fmla="*/ 35 h 64"/>
+              <a:gd name="T24" fmla="*/ 34 w 64"/>
+              <a:gd name="T25" fmla="*/ 43 h 64"/>
+              <a:gd name="T26" fmla="*/ 39 w 64"/>
+              <a:gd name="T27" fmla="*/ 45 h 64"/>
+              <a:gd name="T28" fmla="*/ 41 w 64"/>
+              <a:gd name="T29" fmla="*/ 45 h 64"/>
+              <a:gd name="T30" fmla="*/ 44 w 64"/>
+              <a:gd name="T31" fmla="*/ 41 h 64"/>
+              <a:gd name="T32" fmla="*/ 50 w 64"/>
+              <a:gd name="T33" fmla="*/ 40 h 64"/>
+              <a:gd name="T34" fmla="*/ 62 w 64"/>
+              <a:gd name="T35" fmla="*/ 48 h 64"/>
+              <a:gd name="T36" fmla="*/ 64 w 64"/>
+              <a:gd name="T37" fmla="*/ 50 h 64"/>
+              <a:gd name="T38" fmla="*/ 63 w 64"/>
+              <a:gd name="T39" fmla="*/ 52 h 64"/>
+              <a:gd name="T40" fmla="*/ 63 w 64"/>
+              <a:gd name="T41" fmla="*/ 53 h 64"/>
+              <a:gd name="T42" fmla="*/ 54 w 64"/>
+              <a:gd name="T43" fmla="*/ 61 h 64"/>
+              <a:gd name="T44" fmla="*/ 50 w 64"/>
+              <a:gd name="T45" fmla="*/ 63 h 64"/>
+              <a:gd name="T46" fmla="*/ 50 w 64"/>
+              <a:gd name="T47" fmla="*/ 64 h 64"/>
+              <a:gd name="T48" fmla="*/ 50 w 64"/>
+              <a:gd name="T49" fmla="*/ 64 h 64"/>
+              <a:gd name="T50" fmla="*/ 49 w 64"/>
+              <a:gd name="T51" fmla="*/ 64 h 64"/>
+              <a:gd name="T52" fmla="*/ 48 w 64"/>
+              <a:gd name="T53" fmla="*/ 64 h 64"/>
+              <a:gd name="T54" fmla="*/ 43 w 64"/>
+              <a:gd name="T55" fmla="*/ 63 h 64"/>
+              <a:gd name="T56" fmla="*/ 35 w 64"/>
+              <a:gd name="T57" fmla="*/ 60 h 64"/>
+              <a:gd name="T58" fmla="*/ 26 w 64"/>
+              <a:gd name="T59" fmla="*/ 54 h 64"/>
+              <a:gd name="T60" fmla="*/ 21 w 64"/>
+              <a:gd name="T61" fmla="*/ 50 h 64"/>
+              <a:gd name="T62" fmla="*/ 16 w 64"/>
+              <a:gd name="T63" fmla="*/ 45 h 64"/>
+              <a:gd name="T64" fmla="*/ 6 w 64"/>
+              <a:gd name="T65" fmla="*/ 32 h 64"/>
+              <a:gd name="T66" fmla="*/ 1 w 64"/>
+              <a:gd name="T67" fmla="*/ 19 h 64"/>
+              <a:gd name="T68" fmla="*/ 0 w 64"/>
+              <a:gd name="T69" fmla="*/ 16 h 64"/>
+              <a:gd name="T70" fmla="*/ 0 w 64"/>
+              <a:gd name="T71" fmla="*/ 16 h 64"/>
+              <a:gd name="T72" fmla="*/ 0 w 64"/>
+              <a:gd name="T73" fmla="*/ 15 h 64"/>
+              <a:gd name="T74" fmla="*/ 0 w 64"/>
+              <a:gd name="T75" fmla="*/ 15 h 64"/>
+              <a:gd name="T76" fmla="*/ 0 w 64"/>
+              <a:gd name="T77" fmla="*/ 14 h 64"/>
+              <a:gd name="T78" fmla="*/ 0 w 64"/>
+              <a:gd name="T79" fmla="*/ 13 h 64"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="64" h="64">
+                <a:moveTo>
+                  <a:pt x="0" y="13"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="13"/>
+                  <a:pt x="0" y="13"/>
+                  <a:pt x="1" y="12"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="2" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="7"/>
+                  <a:pt x="8" y="4"/>
+                  <a:pt x="11" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="14" y="0"/>
+                  <a:pt x="15" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="1"/>
+                  <a:pt x="16" y="1"/>
+                  <a:pt x="16" y="2"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="6"/>
+                  <a:pt x="21" y="11"/>
+                  <a:pt x="23" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="24" y="17"/>
+                  <a:pt x="24" y="18"/>
+                  <a:pt x="23" y="20"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="21"/>
+                  <a:pt x="20" y="22"/>
+                  <a:pt x="19" y="23"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="23"/>
+                  <a:pt x="19" y="24"/>
+                  <a:pt x="19" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="26"/>
+                  <a:pt x="20" y="28"/>
+                  <a:pt x="21" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="31"/>
+                  <a:pt x="24" y="33"/>
+                  <a:pt x="25" y="35"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="31" y="41"/>
+                  <a:pt x="34" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="44"/>
+                  <a:pt x="37" y="45"/>
+                  <a:pt x="39" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="41" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="43"/>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="44" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="40"/>
+                  <a:pt x="48" y="39"/>
+                  <a:pt x="50" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="54" y="43"/>
+                  <a:pt x="58" y="45"/>
+                  <a:pt x="62" y="48"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="48"/>
+                  <a:pt x="64" y="49"/>
+                  <a:pt x="64" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64" y="51"/>
+                  <a:pt x="64" y="52"/>
+                  <a:pt x="63" y="52"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="60" y="56"/>
+                  <a:pt x="57" y="59"/>
+                  <a:pt x="54" y="61"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="62"/>
+                  <a:pt x="52" y="63"/>
+                  <a:pt x="50" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="63"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="63"/>
+                  <a:pt x="45" y="63"/>
+                  <a:pt x="43" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="62"/>
+                  <a:pt x="37" y="61"/>
+                  <a:pt x="35" y="60"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="58"/>
+                  <a:pt x="29" y="56"/>
+                  <a:pt x="26" y="54"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="53"/>
+                  <a:pt x="23" y="52"/>
+                  <a:pt x="21" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="49"/>
+                  <a:pt x="18" y="47"/>
+                  <a:pt x="16" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="41"/>
+                  <a:pt x="8" y="37"/>
+                  <a:pt x="6" y="32"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="3" y="28"/>
+                  <a:pt x="1" y="23"/>
+                  <a:pt x="1" y="19"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="18"/>
+                  <a:pt x="0" y="17"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="14"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="13"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Freeform 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="249"/>
+            <a:ext cx="0" cy="239"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Freeform 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="272" y="269"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 1 w 1"/>
+              <a:gd name="T3" fmla="*/ 1 h 1"/>
+              <a:gd name="T4" fmla="*/ 0 w 1"/>
+              <a:gd name="T5" fmla="*/ 1 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1" h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="1"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="1" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Freeform 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="250"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -857,28 +2973,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1181,44 +3297,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1310,27 +3426,21 @@
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="15">
-        <v>11670</v>
-      </c>
-      <c r="C11" s="14">
-        <v>12490</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="15">
-        <v>13350</v>
+        <v>11670</v>
       </c>
       <c r="C12" s="14">
-        <v>14290</v>
+        <v>12490</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>47</v>
@@ -1338,13 +3448,13 @@
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B13" s="15">
-        <v>14660</v>
+        <v>13350</v>
       </c>
       <c r="C13" s="14">
-        <v>15690</v>
+        <v>14290</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>47</v>
@@ -1352,13 +3462,13 @@
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="15">
-        <v>21500</v>
+        <v>14660</v>
       </c>
       <c r="C14" s="14">
-        <v>22990</v>
+        <v>15690</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>47</v>
@@ -1366,10 +3476,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15">
-        <v>21270</v>
+        <v>21500</v>
       </c>
       <c r="C15" s="14">
         <v>22990</v>
@@ -1380,91 +3490,135 @@
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="15">
+        <v>21270</v>
+      </c>
+      <c r="C16" s="14">
+        <v>22990</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B17" s="15">
         <v>25890</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C17" s="14">
         <f>27990</f>
         <v>27990</v>
       </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="15">
-        <v>18790</v>
-      </c>
-      <c r="C17" s="14">
-        <v>19990</v>
-      </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15">
+        <v>18790</v>
+      </c>
+      <c r="C18" s="14">
+        <v>19990</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B19" s="15">
         <v>12240</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C19" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="4"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B22" s="15">
         <v>31990</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="14">
         <v>33990</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="15">
-        <v>37340</v>
-      </c>
-      <c r="C22" s="14">
-        <v>39990</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15">
+        <v>37340</v>
+      </c>
+      <c r="C23" s="14">
+        <v>39990</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A25" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Realme/Others/Price List/realme price list.xlsx
+++ b/Realme/Others/Price List/realme price list.xlsx
@@ -208,9 +208,6 @@
     <t>C11 (4GB+64GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 06-12-2021)</t>
-  </si>
-  <si>
     <t>+8801717436223</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>C21 Y (3GB+32GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 07-12-2021)</t>
   </si>
 </sst>
 </file>
@@ -485,6 +485,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -513,9 +516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3299,8 +3299,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,28 +3313,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3426,7 +3426,7 @@
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
@@ -3587,22 +3587,22 @@
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Realme/Others/Price List/realme price list.xlsx
+++ b/Realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -220,7 +220,7 @@
     <t>C21 Y (3GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 07-12-2021)</t>
+    <t xml:space="preserve"> (Last Update 22-12-2021)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -405,13 +405,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -420,7 +435,9 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -429,7 +446,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -437,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -476,6 +495,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,10 +513,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,13 +525,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2973,28 +2998,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3299,8 +3324,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,28 +3338,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3428,9 +3453,15 @@
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="15">
+        <v>10780</v>
+      </c>
+      <c r="C11" s="14">
+        <v>11490</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3580,29 +3611,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Realme/Others/Price List/realme price list.xlsx
+++ b/Realme/Others/Price List/realme price list.xlsx
@@ -3324,8 +3324,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
